--- a/DB autores V2/Input/2_Autor.xlsx
+++ b/DB autores V2/Input/2_Autor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecamp\SSCO\Herramientas Python\DB autores V2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECG\Devs\Python_Tools\DB autores V2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C4BD83-24DD-4163-9097-E999FF46342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7D753F-9B95-4265-BCB5-C67755ADB30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49DA97FA-188D-480B-9E94-1CB200A5E81F}"/>
   </bookViews>
@@ -2780,9 +2780,6 @@
     <t>JOSUÉ ANTONIO HERNÁNDEZ OSORIO;ELENA BEATRIZ BOLIO LÓPEZ;YAZMÍN MARTÍNEZ CARREÓN;ANNE LICE HERNÁNDEZ ALBA;VERÓNICA CERVERA TORRES ;ISRAEL PALAZUELOS COVARRUBIAS;ALYA RAMOS RAMOS ELORDUY;ROCÍO HERNÁNDEZ VITE;</t>
   </si>
   <si>
-    <t>NA;</t>
-  </si>
-  <si>
     <t>AARÓN PÉREZ PÉREZ;JOSÉ ABE AMAR GONZÁLEZ HERRERA;HECTOR ARTURO VELASCO VILLA;PASCUAL RUIZ GARCIAS;JUAN MANUEL EPULVEDA FAVAD;OSCAR LUEBBERT GUTIERREZ;CESÁREO TEROBA LARA;RAFAEL VILLEGAS AIRLIN;JESUS RODRIGUEZ HERNANDEZ;VICENTE ANAYA CADENA;JUAN CARLOS SÁNCHEZ MAGALLAN;CARLOS ROJAS GUTIERREZ;</t>
   </si>
   <si>
@@ -2844,22 +2841,17 @@
   </si>
   <si>
     <t>ADOLFO DEL CASTILLO MARTÍNEZ;LAURA PALOMARES ESQUIVEL;LEONARD MERTENS;MARIA CRISTINA ROSAS;VÍCTOR CARLOS GARCÍA MORENO;ALBERTO MORALES BARRERA;ALVARO SÁNCHEZ- CRISPÍN;JAIME J. ARCEO CASTRO;</t>
+  </si>
+  <si>
+    <t>NO APLICA;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -2887,10 +2879,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3227,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0B880B-B4B3-4942-B1A8-5AA6776E3486}">
   <dimension ref="A1:A1597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1454" workbookViewId="0">
-      <selection activeCell="A1489" sqref="A1489"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302:A1596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4743,7 +4734,7 @@
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
@@ -4928,7 +4919,7 @@
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
@@ -6148,7 +6139,7 @@
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
@@ -8658,7 +8649,7 @@
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
@@ -9968,7 +9959,7 @@
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1347" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
@@ -10393,7 +10384,7 @@
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1432" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
@@ -10503,7 +10494,7 @@
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1454" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
@@ -10523,12 +10514,12 @@
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1458" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1459" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
@@ -10543,7 +10534,7 @@
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1462" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
@@ -10563,12 +10554,12 @@
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1466" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1467" s="2" t="s">
-        <v>913</v>
+      <c r="A1467" s="1" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
@@ -10593,7 +10584,7 @@
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1472" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
@@ -10613,7 +10604,7 @@
     </row>
     <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1476" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
@@ -10638,7 +10629,7 @@
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1481" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
@@ -10648,12 +10639,12 @@
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1483" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1484" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
@@ -10673,7 +10664,7 @@
     </row>
     <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1488" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
@@ -10693,17 +10684,17 @@
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1492" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1493" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1494" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
@@ -10758,7 +10749,7 @@
     </row>
     <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1505" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
@@ -10768,12 +10759,12 @@
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
@@ -10793,7 +10784,7 @@
     </row>
     <row r="1512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1512" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
@@ -10813,7 +10804,7 @@
     </row>
     <row r="1516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
@@ -10823,7 +10814,7 @@
     </row>
     <row r="1518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1519" spans="1:1" x14ac:dyDescent="0.25">
@@ -10833,7 +10824,7 @@
     </row>
     <row r="1520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1521" spans="1:1" x14ac:dyDescent="0.25">
@@ -10853,12 +10844,12 @@
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1525" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
@@ -10868,37 +10859,37 @@
     </row>
     <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1531" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1533" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
@@ -11073,7 +11064,7 @@
     </row>
     <row r="1568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1568" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1569" spans="1:1" x14ac:dyDescent="0.25">
@@ -11118,7 +11109,7 @@
     </row>
     <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1578" spans="1:1" x14ac:dyDescent="0.25">
@@ -11188,7 +11179,7 @@
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1591" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
@@ -11198,7 +11189,7 @@
     </row>
     <row r="1593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1593" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1594" spans="1:1" x14ac:dyDescent="0.25">
@@ -11213,7 +11204,7 @@
     </row>
     <row r="1596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1596" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
@@ -11222,6 +11213,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A1597" xr:uid="{4C0B880B-B4B3-4942-B1A8-5AA6776E3486}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>